--- a/documents/rozvrh-reformery.xlsx
+++ b/documents/rozvrh-reformery.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\Rozvrhy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B49685-20BC-45B6-B60E-DC5864F7D8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE7949B-7F93-4934-B201-621AD45DF420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="18840" windowHeight="9810" xr2:uid="{7B5AE5A3-63EF-4738-B7A3-D1F2FE49A785}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="18840" windowHeight="9810" xr2:uid="{FEF15F2D-829B-45ED-8C68-780B4A2BF5A6}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">List1!$A$2:$O$14</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>Rozvrh lekcí tělocvična s Reformery</t>
   </si>
   <si>
+    <t>7:00 - 8:00</t>
+  </si>
+  <si>
     <t>8:00 - 9:00</t>
   </si>
   <si>
@@ -51,6 +51,9 @@
     <t>13:00 - 14:00</t>
   </si>
   <si>
+    <t>14:00 - 15:00</t>
+  </si>
+  <si>
     <t>15:00 - 16:00</t>
   </si>
   <si>
@@ -66,28 +69,31 @@
     <t>19:00 - 20:00</t>
   </si>
   <si>
+    <t>20:00 - 21:00</t>
+  </si>
+  <si>
     <t>Po</t>
   </si>
   <si>
     <t>Kristýna</t>
   </si>
   <si>
+    <t>Zuzka</t>
+  </si>
+  <si>
     <t>Veronika</t>
   </si>
   <si>
-    <t>Zuzka</t>
+    <t>Zuzka soukromá</t>
+  </si>
+  <si>
+    <t>Žofie</t>
   </si>
   <si>
     <t>Út</t>
   </si>
   <si>
-    <t>Qaša</t>
-  </si>
-  <si>
-    <t>Soukromá lekce Qaša</t>
-  </si>
-  <si>
-    <t>Helena</t>
+    <t>Mirka</t>
   </si>
   <si>
     <t>St</t>
@@ -99,6 +105,15 @@
     <t>Čt</t>
   </si>
   <si>
+    <t>soukromá lekce Žofie</t>
+  </si>
+  <si>
+    <t>Terka Č. soukromá</t>
+  </si>
+  <si>
+    <t>Kristýna R.</t>
+  </si>
+  <si>
     <t>Pá</t>
   </si>
   <si>
@@ -111,73 +126,43 @@
     <t>Ne</t>
   </si>
   <si>
+    <t>soukromá Mirka</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mirka</t>
+  </si>
+  <si>
     <t xml:space="preserve">K dispozici jsu dva stroje Pilates Reformer, na lekci se můžete objednávat buď přes rezervační systém, nebo sms na tel. čísle 602 720 237 Zuzka Dušánková. </t>
   </si>
   <si>
     <t>WWW.CAFEPILATES.CZ</t>
   </si>
   <si>
-    <t>14:00 - 15:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Helena</t>
-  </si>
-  <si>
-    <t>Mirka</t>
-  </si>
-  <si>
-    <t>Žofie</t>
-  </si>
-  <si>
-    <t>Zuzka soukromá</t>
-  </si>
-  <si>
-    <t>soukromá lekce Žofie</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soukromá lekce Danča N.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Danča N.</t>
-  </si>
-  <si>
-    <t>7:00 - 8:00</t>
-  </si>
-  <si>
-    <t>20:00 - 21:00</t>
-  </si>
-  <si>
-    <t>soukromá Kristýna</t>
-  </si>
-  <si>
-    <t>12:30 - 13:30 Zuzka soukromá</t>
-  </si>
-  <si>
-    <t>soukromá Mirka</t>
-  </si>
-  <si>
-    <t>Kristýna R.</t>
-  </si>
-  <si>
-    <t>11:30 - 12:30 Soukromá lekce Danča N.</t>
-  </si>
-  <si>
-    <t>7:30 - 8:30 Verča</t>
-  </si>
-  <si>
-    <t>Cena za lekci: 600,--Kč. Při domluvě individuální lekce mimo rozvrh cena 1800,--Kč.</t>
-  </si>
-  <si>
-    <t>Cena za lekci s Qašou: 750,--Kč</t>
-  </si>
-  <si>
-    <t>soukromá Veronika</t>
-  </si>
-  <si>
-    <t>Terka Č. soukromá</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mirka</t>
+    <t>soukromá Kristýna R.</t>
+  </si>
+  <si>
+    <t>11:30 - 12:30 Soukromá lekce Kristýna R.</t>
+  </si>
+  <si>
+    <t>Žofka</t>
+  </si>
+  <si>
+    <t>Tomáš</t>
+  </si>
+  <si>
+    <t>Aneta</t>
+  </si>
+  <si>
+    <t>Terka Č.</t>
+  </si>
+  <si>
+    <t>soukromá Žofie</t>
+  </si>
+  <si>
+    <t>soukr.Kristýna R.</t>
+  </si>
+  <si>
+    <t>Cena za lekci: 600,--Kč. Při domluvě individuální lekce mimo rozvrh cena 1600,--Kč.</t>
   </si>
 </sst>
 </file>
@@ -220,7 +205,25 @@
     </font>
     <font>
       <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -253,31 +256,19 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -287,12 +278,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -310,6 +301,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -334,6 +351,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -488,58 +516,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -549,62 +525,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -927,17 +911,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952D9809-0965-4B31-BB92-222D6CA8109F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944DB9AE-1F3B-45F1-81F3-6177D90F904E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.90625" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" customWidth="1"/>
@@ -948,364 +932,357 @@
     <col min="11" max="11" width="9.6328125" customWidth="1"/>
     <col min="12" max="12" width="9.453125" customWidth="1"/>
     <col min="13" max="13" width="9.90625" customWidth="1"/>
-    <col min="14" max="14" width="8.1796875" customWidth="1"/>
-    <col min="15" max="15" width="8.6328125" customWidth="1"/>
+    <col min="14" max="15" width="9.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="9"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="F5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="15"/>
+    </row>
+    <row r="7" spans="1:17" ht="59.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="21" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="45.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="25" t="s">
+      <c r="L10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="26"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="1:17" ht="64" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" ht="47.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="26"/>
-    </row>
-    <row r="9" spans="1:17" ht="44" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="33"/>
-    </row>
-    <row r="10" spans="1:17" ht="45.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:17" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="7"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:17" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:17" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:N2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{9D31F10A-2498-462D-BDCE-BF327712FD9C}"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{10476740-1EB9-4D34-BA6F-C63F81D9D7F9}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/documents/rozvrh-reformery.xlsx
+++ b/documents/rozvrh-reformery.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zuzka\Desktop\Dokumenty kavárna\Rozvrhy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE7949B-7F93-4934-B201-621AD45DF420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DB4251-110C-4F01-8DC1-1945EF5D2505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="360" windowWidth="18840" windowHeight="9810" xr2:uid="{FEF15F2D-829B-45ED-8C68-780B4A2BF5A6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEF15F2D-829B-45ED-8C68-780B4A2BF5A6}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
   <si>
     <t>Rozvrh lekcí tělocvična s Reformery</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Zuzka soukromá</t>
   </si>
   <si>
-    <t>Žofie</t>
-  </si>
-  <si>
     <t>Út</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Čt</t>
   </si>
   <si>
-    <t>soukromá lekce Žofie</t>
-  </si>
-  <si>
     <t>Terka Č. soukromá</t>
   </si>
   <si>
@@ -141,28 +135,31 @@
     <t>soukromá Kristýna R.</t>
   </si>
   <si>
-    <t>11:30 - 12:30 Soukromá lekce Kristýna R.</t>
+    <t>Tomáš</t>
+  </si>
+  <si>
+    <t>Terka Č.</t>
+  </si>
+  <si>
+    <t>soukromá lekce Kristýna R.</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Soukromá lekce Kristýna R.</t>
+  </si>
+  <si>
+    <t>Kristána R.</t>
+  </si>
+  <si>
+    <t>Kristýna soukromá</t>
   </si>
   <si>
     <t>Žofka</t>
   </si>
   <si>
-    <t>Tomáš</t>
-  </si>
-  <si>
-    <t>Aneta</t>
-  </si>
-  <si>
-    <t>Terka Č.</t>
-  </si>
-  <si>
-    <t>soukromá Žofie</t>
-  </si>
-  <si>
-    <t>soukr.Kristýna R.</t>
-  </si>
-  <si>
-    <t>Cena za lekci: 600,--Kč. Při domluvě individuální lekce mimo rozvrh cena 1600,--Kč.</t>
+    <t>Cena za lekci: 750,--Kč. Při domluvě individuální lekce mimo rozvrh cena 1600,--Kč.</t>
   </si>
 </sst>
 </file>
@@ -222,15 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="9"/>
       <color theme="10"/>
@@ -256,8 +244,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +272,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -525,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,65 +527,61 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -915,7 +901,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -931,28 +917,29 @@
     <col min="9" max="10" width="10.36328125" customWidth="1"/>
     <col min="11" max="11" width="9.6328125" customWidth="1"/>
     <col min="12" max="12" width="9.453125" customWidth="1"/>
-    <col min="13" max="13" width="9.90625" customWidth="1"/>
-    <col min="14" max="15" width="9.36328125" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" customWidth="1"/>
+    <col min="14" max="14" width="7.7265625" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:17" ht="44.5" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1000,280 +987,284 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="37" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36" t="s">
+      <c r="B5" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="D5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="30"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="34"/>
+    </row>
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.5">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="1:17" ht="45.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="42"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="30.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6" s="15"/>
-    </row>
-    <row r="7" spans="1:17" ht="59.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:17" ht="45.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:17" ht="11" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:17" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:17" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:17" s="32" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="30"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:17" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:17" s="19" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
